--- a/CoreRulebook/Data/Archetypes/Brute.xlsx
+++ b/CoreRulebook/Data/Archetypes/Brute.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -34,16 +34,94 @@
     <t xml:space="preserve">Beserker</t>
   </si>
   <si>
-    <t xml:space="preserve">Bodyguard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff2</t>
+    <t xml:space="preserve">Gentle Giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Armour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berserker Rage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentle Aura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimidating Presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunning Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Affinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brutal Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berserker Rage II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protective Rampage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bludegoning Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Armour II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primal Senses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Packs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush Aside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Resilience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulsive Rush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentle Aura II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindless Attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Affinity II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brutal Critical II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berserker Rage III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Heart II</t>
   </si>
 </sst>
 </file>
@@ -129,12 +207,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -147,14 +225,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:E5"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="41.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,6 +261,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A2/5)</f>
         <v>0</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -191,6 +273,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A3/5)</f>
         <v>0</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -200,6 +285,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A4/5)</f>
         <v>0</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -210,13 +301,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,6 +315,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A6/5)</f>
         <v>1</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -236,6 +330,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A7/5)</f>
         <v>1</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -245,6 +345,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A8/5)</f>
         <v>1</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -254,6 +357,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A9/5)</f>
         <v>1</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -263,6 +372,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A10/5)</f>
         <v>1</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -272,6 +384,15 @@
         <f aca="false">_xlfn.FLOOR.MATH(A11/5)</f>
         <v>2</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -281,6 +402,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A12/5)</f>
         <v>2</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -290,6 +414,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A13/5)</f>
         <v>2</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -299,6 +429,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A14/5)</f>
         <v>2</v>
       </c>
+      <c r="E14" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -317,6 +450,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A16/5)</f>
         <v>3</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -327,6 +466,9 @@
         <v>3</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="E17" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -336,6 +478,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A18/5)</f>
         <v>3</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -345,6 +490,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A19/5)</f>
         <v>3</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -362,6 +513,12 @@
       <c r="B21" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(A21/5)</f>
         <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
